--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-03_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-03_beg.xlsx
@@ -620,11 +620,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I didn’t think too much about it at the time. I only wanted to find somewhere to hide. I didn’t think I’d actually find somewhere to stay.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And I think that old couple thought of me as a daughter. Since their own sons and daughters had probably long since lost their lives to Ursus’s countless wars.
+    <t xml:space="preserve">I didn't think too much about it at the time. I only wanted to find somewhere to hide. I didn't think I'd actually find somewhere to stay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I think that old couple thought of me as a daughter. Since their own sons and daughters had probably long since lost their lives to Ursus's countless wars.
 </t>
   </si>
   <si>
@@ -632,7 +632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’m sure I could’ve spent a lifetime repaying their kindness.
+    <t xml:space="preserve">I'm sure I could've spent a lifetime repaying their kindness.
 </t>
   </si>
   <si>
@@ -652,19 +652,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] If you don’t want a hard labor sentence, turn them in. No one will come to harm if you do your civic duty, and the offenders and Infected will meet their proper end. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] Now, we’ll start from the first household.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] It looks like the day came after all. There’s no chance I’ll make it through this one. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Don’t go out there, Talulah! Hide behind the shed... they won’t look there! We’ll tell them you were scared of what was coming and ran away! No one’d blame you for it!   
+    <t xml:space="preserve">[name="Infected Patrol Unit"] If you don't want a hard labor sentence, turn them in. No one will come to harm if you do your civic duty, and the offenders and Infected will meet their proper end. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] Now, we'll start from the first household.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It looks like the day came after all. There's no chance I'll make it through this one. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Don't go out there, Talulah! Hide behind the shed... they won't look there! We'll tell them you were scared of what was coming and ran away! No one'd blame you for it!   
 </t>
   </si>
   <si>
@@ -672,35 +672,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’ve left you some gold coins... from Victoria. Spend them sparingly, and they’ll have you warm and well fed for the rest of your lives.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Talulah, Talulah! Where are you going? My Talulah... you can’t, you can’t go to them! Those black-hearted patrolling bugs eat people alive!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] And I can’t just stand by and let them torture the men and women of this village. I have to see this through. I’ll lure them away, give them a wake-up call, let them know what they’ve wrought.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I know what’s right. I’m not letting them punish these people. I’m not letting them murder anyone else. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I still remember how the boy next door was beaten to death for chucking a stone. I’ll never forget. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Talulah... Talulah! You can’t... that’s enough! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Who?! Who’s at the door...!? Is it the patrolmen?! Go away!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] Ma’am, it’s me!
+    <t xml:space="preserve">[name="Talulah"] I've left you some gold coins... from Victoria. Spend them sparingly, and they'll have you warm and well fed for the rest of your lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Talulah, Talulah! Where are you going? My Talulah... you can't, you can't go to them! Those black-hearted patrolling bugs eat people alive!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And I can't just stand by and let them torture the men and women of this village. I have to see this through. I'll lure them away, give them a wake-up call, let them know what they've wrought.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I know what's right. I'm not letting them punish these people. I'm not letting them murder anyone else. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I still remember how the boy next door was beaten to death for chucking a stone. I'll never forget. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Talulah... Talulah! You can't... that's enough! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Who?! Who's at the door...!? Is it the patrolmen?! Go away!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Ma'am, it's me!
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] What’s wrong? What’s happened? Is there news?  
+    <t xml:space="preserve">[name="Old Woman"] What's wrong? What's happened? Is there news?  
 </t>
   </si>
   <si>
@@ -720,15 +720,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] The Patrol Unit knows there’s an Infected in our village.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] How could... this can’t be... ahh!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] I don’t know who it was, but we all know what happens to those who harbor Infected.
+    <t xml:space="preserve">[name="Alina"] The Patrol Unit knows there's an Infected in our village.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] How could... this can't be... ahh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] I don't know who it was, but we all know what happens to those who harbor Infected.
 </t>
   </si>
   <si>
@@ -736,11 +736,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] Ma’am, my father passed early, and you took such good care of my mother, you and your husband both. You’re like grandparents to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] And at this point, I can’t really hide anything...
+    <t xml:space="preserve">[name="Alina"] Ma'am, my father passed early, and you took such good care of my mother, you and your husband both. You're like grandparents to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] And at this point, I can't really hide anything...
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] A confession? Ah, yeah, I remember.  An old geezer got in our guy’s way. Judging by your limp, you were one of the thugs who attacked him!   
+    <t xml:space="preserve">[name="Infected Patrol Unit"] A confession? Ah, yeah, I remember.  An old geezer got in our guy's way. Judging by your limp, you were one of the thugs who attacked him!   
 </t>
   </si>
   <si>
@@ -772,7 +772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] Hold it. Sir, look at my skin here. What’s that look like to you? 
+    <t xml:space="preserve">[name="Old Man"] Hold it. Sir, look at my skin here. What's that look like to you? 
 </t>
   </si>
   <si>
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] Infected! You’re the Infected? 
+    <t xml:space="preserve">[name="Infected Patrol Unit"] Infected! You're the Infected? 
 </t>
   </si>
   <si>
@@ -788,7 +788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] I realized the moment I helped you change clothes... Talulah, we’ve known you were Infected for a long time now.
+    <t xml:space="preserve">[name="Old Woman"] I realized the moment I helped you change clothes... Talulah, we've known you were Infected for a long time now.
 </t>
   </si>
   <si>
@@ -796,11 +796,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] The old man worked the mines, and came back after he’d caught Oripathy himself! You’ve seen how he never takes off that jacket of his... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] He’s going to go in your place, Talulah...!
+    <t xml:space="preserve">[name="Old Woman"] The old man worked the mines, and came back after he'd caught Oripathy himself! You've seen how he never takes off that jacket of his... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] He's going to go in your place, Talulah...!
 </t>
   </si>
   <si>
@@ -812,19 +812,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] You can’t trust the people here like that! The villagers will say whatever they need to, for money or to save their own skins! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] For the last two years, Talulah, we’ve been truly happy to have you! You’re a good girl... a good girl! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] We don’t have long left to live, but Talulah, even if you’re ill, you’ve still got years yet! You need to live, Talulah, that’s what’s right... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Talulah, don’t go! For heaven’s sakes, don’t go...! 
+    <t xml:space="preserve">[name="Old Woman"] You can't trust the people here like that! The villagers will say whatever they need to, for money or to save their own skins! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] For the last two years, Talulah, we've been truly happy to have you! You're a good girl... a good girl! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] We don't have long left to live, but Talulah, even if you're ill, you've still got years yet! You need to live, Talulah, that's what's right... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Talulah, don't go! For heaven's sakes, don't go...! 
 </t>
   </si>
   <si>
@@ -836,7 +836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] Look at my skin! I’m the bloody diseased one! 
+    <t xml:space="preserve">[name="Old Man"] Look at my skin! I'm the bloody diseased one! 
 </t>
   </si>
   <si>
@@ -844,11 +844,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] If you don’t believe me, then take a look at this!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] A knife? Put that down. You can’t touch us, old man.  
+    <t xml:space="preserve">[name="Old Man"] If you don't believe me, then take a look at this!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] A knife? Put that down. You can't touch us, old man.  
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] Look, look... Officer! I’m an Infected, tried and true! 
+    <t xml:space="preserve">[name="Old Man"] Look, look... Officer! I'm an Infected, tried and true! 
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] Talulah! Come back! Don’t!  
+    <t xml:space="preserve">[name="Alina"] Talulah! Come back! Don't!  
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] Don’t! Talulah! They'll destroy the whole village! 
+    <t xml:space="preserve">[name="Alina"] Don't! Talulah! They'll destroy the whole village! 
 </t>
   </si>
   <si>
